--- a/Files/data/xlsx_data/HAU_IOC_Joined.xlsx
+++ b/Files/data/xlsx_data/HAU_IOC_Joined.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\BirdnetProject\Files\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\BirdnetProject\Files\data\xlsx_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7902E72B-D5AE-492B-86EC-F6C2FF2511B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396B4765-6875-4B9F-A39C-2F03FF404542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -337,10 +337,10 @@
     <t>Cormorant</t>
   </si>
   <si>
-    <t>Pygmy Cormorant</t>
-  </si>
-  <si>
-    <t>pygmaeus</t>
+    <t>Great Cormorant</t>
+  </si>
+  <si>
+    <t>carbo</t>
   </si>
   <si>
     <t>Pygmy Cormorant, Reed Cormorant, Crowned Cormorant, Little Cormorant, Little Pied Cormorant, Red-legged Cormorant, Brandt's Cormorant, Red-faced Cormorant, Pelagic Cormorant, Spectacled Cormorant, Bank Cormorant, Socotra Cormorant, Black-faced Cormorant, Australian Pied Cormorant, Little Black Cormorant, Indian Cormorant, Cape Cormorant, Japanese Cormorant, White-breasted Cormorant, Great Cormorant, Flightless Cormorant, Neotropic Cormorant, Double-crested Cormorant, Guanay Cormorant</t>
@@ -766,18 +766,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="I79" sqref="I79"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="0.6640625" customWidth="1"/>
-    <col min="3" max="5" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="39.77734375" customWidth="1"/>
-    <col min="7" max="7" width="37.109375" customWidth="1"/>
-    <col min="8" max="8" width="32.88671875" customWidth="1"/>
-    <col min="9" max="9" width="42.33203125" customWidth="1"/>
-    <col min="10" max="10" width="61" customWidth="1"/>
+    <col min="6" max="6" width="57.77734375" customWidth="1"/>
+    <col min="7" max="7" width="52" customWidth="1"/>
+    <col min="8" max="8" width="21.6640625" customWidth="1"/>
+    <col min="9" max="9" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
